--- a/data/pca/factorExposure/factorExposure_2009-12-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.003636087236408039</v>
+        <v>0.01689600373282086</v>
       </c>
       <c r="C2">
-        <v>-0.01305363000708193</v>
+        <v>-0.001178700877166637</v>
       </c>
       <c r="D2">
-        <v>-0.002848542338952405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006189221959069628</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002144105011392319</v>
+      </c>
+      <c r="F2">
+        <v>-0.0114048110925014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03024991454879591</v>
+        <v>0.09372026804443567</v>
       </c>
       <c r="C4">
-        <v>-0.1226158392968569</v>
+        <v>-0.01579704058338416</v>
       </c>
       <c r="D4">
-        <v>0.01255004332630404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08411582504363636</v>
+      </c>
+      <c r="E4">
+        <v>0.02856854965723284</v>
+      </c>
+      <c r="F4">
+        <v>0.03087903622619022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03743668137569413</v>
+        <v>0.1572740174879765</v>
       </c>
       <c r="C6">
-        <v>-0.1117312195564023</v>
+        <v>-0.02526062863197752</v>
       </c>
       <c r="D6">
-        <v>-0.0376085318229936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02307701452949531</v>
+      </c>
+      <c r="E6">
+        <v>0.009017735511164584</v>
+      </c>
+      <c r="F6">
+        <v>0.04670858555802612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01032691664150117</v>
+        <v>0.06271187821967834</v>
       </c>
       <c r="C7">
-        <v>-0.07903303500116646</v>
+        <v>0.0008578443304698585</v>
       </c>
       <c r="D7">
-        <v>-0.002870011969326722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0512519584082611</v>
+      </c>
+      <c r="E7">
+        <v>0.009335025160458423</v>
+      </c>
+      <c r="F7">
+        <v>0.04633713029550061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002579340742304614</v>
+        <v>0.05707800059842704</v>
       </c>
       <c r="C8">
-        <v>-0.05990910480574769</v>
+        <v>0.01335367434248624</v>
       </c>
       <c r="D8">
-        <v>-0.02219415537718986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03346671253293124</v>
+      </c>
+      <c r="E8">
+        <v>0.0176219303184816</v>
+      </c>
+      <c r="F8">
+        <v>-0.02810739262986257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02544707267361046</v>
+        <v>0.07118329864884033</v>
       </c>
       <c r="C9">
-        <v>-0.1016968696699221</v>
+        <v>-0.01156800748234904</v>
       </c>
       <c r="D9">
-        <v>0.01992012386017614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08599023016537249</v>
+      </c>
+      <c r="E9">
+        <v>0.02291845761928964</v>
+      </c>
+      <c r="F9">
+        <v>0.04741627906240548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01141196413419104</v>
+        <v>0.09615389024697898</v>
       </c>
       <c r="C10">
-        <v>-0.023969658813603</v>
+        <v>-0.0195086611225733</v>
       </c>
       <c r="D10">
-        <v>-0.124018274311056</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1705744794986541</v>
+      </c>
+      <c r="E10">
+        <v>-0.03667193741657365</v>
+      </c>
+      <c r="F10">
+        <v>-0.05268613442266931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.02959210281062145</v>
+        <v>0.0879544532439416</v>
       </c>
       <c r="C11">
-        <v>-0.1087522651473223</v>
+        <v>-0.01114041116573705</v>
       </c>
       <c r="D11">
-        <v>0.02589068586592565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1160712962286172</v>
+      </c>
+      <c r="E11">
+        <v>0.04596238882124499</v>
+      </c>
+      <c r="F11">
+        <v>0.02138366936645684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02710807040767652</v>
+        <v>0.09196369146756744</v>
       </c>
       <c r="C12">
-        <v>-0.1189110306222336</v>
+        <v>-0.008187506800560908</v>
       </c>
       <c r="D12">
-        <v>0.02384547079817522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316666729503951</v>
+      </c>
+      <c r="E12">
+        <v>0.04727201356555594</v>
+      </c>
+      <c r="F12">
+        <v>0.02550538962365668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.009117508780170253</v>
+        <v>0.04233544323890882</v>
       </c>
       <c r="C13">
-        <v>-0.04085009781778302</v>
+        <v>-0.003602627673722308</v>
       </c>
       <c r="D13">
-        <v>0.02732774929114358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05106998624010543</v>
+      </c>
+      <c r="E13">
+        <v>-0.009253910373082437</v>
+      </c>
+      <c r="F13">
+        <v>0.002072280229776824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01601282957018709</v>
+        <v>0.02302363096941632</v>
       </c>
       <c r="C14">
-        <v>-0.02391727751786451</v>
+        <v>-0.0140025363170541</v>
       </c>
       <c r="D14">
-        <v>-0.006454128999564562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03311200766370193</v>
+      </c>
+      <c r="E14">
+        <v>0.01695982343836186</v>
+      </c>
+      <c r="F14">
+        <v>0.01452052829346265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01039283527470776</v>
+        <v>0.03276695369296587</v>
       </c>
       <c r="C15">
-        <v>-0.02818302636560173</v>
+        <v>-0.004976686731274493</v>
       </c>
       <c r="D15">
-        <v>0.01429131474461301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04522629492543877</v>
+      </c>
+      <c r="E15">
+        <v>0.005932439841446452</v>
+      </c>
+      <c r="F15">
+        <v>0.02302744882919146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01878157718585471</v>
+        <v>0.07411096382289217</v>
       </c>
       <c r="C16">
-        <v>-0.1110585709301756</v>
+        <v>-0.002233141869678591</v>
       </c>
       <c r="D16">
-        <v>0.006969122134606791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1256466637857611</v>
+      </c>
+      <c r="E16">
+        <v>0.06135589057732422</v>
+      </c>
+      <c r="F16">
+        <v>0.02451971993508973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03166070402810849</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003423664383459857</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0197965804554619</v>
+      </c>
+      <c r="E18">
+        <v>-0.006591303761218822</v>
+      </c>
+      <c r="F18">
+        <v>-0.003394183716433413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01181429343750508</v>
+        <v>0.06117248473174831</v>
       </c>
       <c r="C20">
-        <v>-0.06760504626593923</v>
+        <v>-0.0006956560474689574</v>
       </c>
       <c r="D20">
-        <v>-0.004788045462018886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07652570844022397</v>
+      </c>
+      <c r="E20">
+        <v>0.05557014075065392</v>
+      </c>
+      <c r="F20">
+        <v>0.02298808360288157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01257757639663596</v>
+        <v>0.04054068042462658</v>
       </c>
       <c r="C21">
-        <v>-0.02273516905671326</v>
+        <v>-0.006744602610005936</v>
       </c>
       <c r="D21">
-        <v>0.0007496485879248058</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03624261494810576</v>
+      </c>
+      <c r="E21">
+        <v>-0.006062184263831425</v>
+      </c>
+      <c r="F21">
+        <v>-0.0239738099605195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.004788826566832251</v>
+        <v>0.04362605122297263</v>
       </c>
       <c r="C22">
-        <v>-0.03010993246842395</v>
+        <v>-0.001185899662631725</v>
       </c>
       <c r="D22">
-        <v>-0.04152483898903477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002831317086253609</v>
+      </c>
+      <c r="E22">
+        <v>0.02902988626200742</v>
+      </c>
+      <c r="F22">
+        <v>-0.03367242262068094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.004776667259029917</v>
+        <v>0.04361163226092232</v>
       </c>
       <c r="C23">
-        <v>-0.03004034920766277</v>
+        <v>-0.001181658597576882</v>
       </c>
       <c r="D23">
-        <v>-0.04161806865310796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002836046273576857</v>
+      </c>
+      <c r="E23">
+        <v>0.02923164355182092</v>
+      </c>
+      <c r="F23">
+        <v>-0.0336350240723914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.01910109963326266</v>
+        <v>0.08032209844191962</v>
       </c>
       <c r="C24">
-        <v>-0.1149864952950553</v>
+        <v>-0.002708057014328054</v>
       </c>
       <c r="D24">
-        <v>0.01634275977183559</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203408948180134</v>
+      </c>
+      <c r="E24">
+        <v>0.04897509267517802</v>
+      </c>
+      <c r="F24">
+        <v>0.02547975647270681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0245260745248132</v>
+        <v>0.08522040693530795</v>
       </c>
       <c r="C25">
-        <v>-0.1197731272511107</v>
+        <v>-0.004942594338012807</v>
       </c>
       <c r="D25">
-        <v>0.012005965907216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1087670181532558</v>
+      </c>
+      <c r="E25">
+        <v>0.03230444935290187</v>
+      </c>
+      <c r="F25">
+        <v>0.02609933010563004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02374895740153512</v>
+        <v>0.05768134889740137</v>
       </c>
       <c r="C26">
-        <v>-0.05126356748321521</v>
+        <v>-0.01478961082081792</v>
       </c>
       <c r="D26">
-        <v>-0.02221149678980654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03985146285938548</v>
+      </c>
+      <c r="E26">
+        <v>0.0276934116455943</v>
+      </c>
+      <c r="F26">
+        <v>-0.01004508363476012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.004205451444106078</v>
+        <v>0.1408763077679249</v>
       </c>
       <c r="C28">
-        <v>-0.02294838166971492</v>
+        <v>-0.01892089189194068</v>
       </c>
       <c r="D28">
-        <v>-0.1715147082795425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2636455248151821</v>
+      </c>
+      <c r="E28">
+        <v>-0.06849934861759507</v>
+      </c>
+      <c r="F28">
+        <v>0.008716132003743765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01295004779588178</v>
+        <v>0.027736734540158</v>
       </c>
       <c r="C29">
-        <v>-0.02856828130473138</v>
+        <v>-0.008171584248416323</v>
       </c>
       <c r="D29">
-        <v>-0.01236167297532318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03263123330200172</v>
+      </c>
+      <c r="E29">
+        <v>0.01131155416213668</v>
+      </c>
+      <c r="F29">
+        <v>-0.01008338165274479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01575715760697112</v>
+        <v>0.06163443747174599</v>
       </c>
       <c r="C30">
-        <v>-0.1250126332527503</v>
+        <v>-0.003964302533830088</v>
       </c>
       <c r="D30">
-        <v>0.02076778836584885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08758840846918661</v>
+      </c>
+      <c r="E30">
+        <v>0.01886774983003671</v>
+      </c>
+      <c r="F30">
+        <v>0.08270469305631802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02185945638814835</v>
+        <v>0.0499851187031612</v>
       </c>
       <c r="C31">
-        <v>-0.03714897595691997</v>
+        <v>-0.01531001166224704</v>
       </c>
       <c r="D31">
-        <v>-0.006789695248746903</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02482802305986145</v>
+      </c>
+      <c r="E31">
+        <v>0.02747946947474862</v>
+      </c>
+      <c r="F31">
+        <v>-0.002643240500348649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.007306971592223908</v>
+        <v>0.04990363832185989</v>
       </c>
       <c r="C32">
-        <v>-0.06069447665882148</v>
+        <v>0.001285338299081905</v>
       </c>
       <c r="D32">
-        <v>-0.03337218453796571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0357858232185437</v>
+      </c>
+      <c r="E32">
+        <v>0.03090180825706263</v>
+      </c>
+      <c r="F32">
+        <v>0.002314695061743419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02280420941319614</v>
+        <v>0.08944093398735715</v>
       </c>
       <c r="C33">
-        <v>-0.1147700519339148</v>
+        <v>-0.008285773125623896</v>
       </c>
       <c r="D33">
-        <v>0.01801754023140205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09855560111718487</v>
+      </c>
+      <c r="E33">
+        <v>0.04409772320716716</v>
+      </c>
+      <c r="F33">
+        <v>0.03544573741486874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02626963809457662</v>
+        <v>0.0684743015614047</v>
       </c>
       <c r="C34">
-        <v>-0.09723857918532346</v>
+        <v>-0.01131996600657722</v>
       </c>
       <c r="D34">
-        <v>0.009446886998459832</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065078940640016</v>
+      </c>
+      <c r="E34">
+        <v>0.03447159000514913</v>
+      </c>
+      <c r="F34">
+        <v>0.03348891195557582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003852833345897297</v>
+        <v>0.02413245032049337</v>
       </c>
       <c r="C35">
-        <v>-0.0161258973113684</v>
+        <v>-0.002451039111018409</v>
       </c>
       <c r="D35">
-        <v>0.001218889856038286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01189364392059773</v>
+      </c>
+      <c r="E35">
+        <v>0.01156196080160123</v>
+      </c>
+      <c r="F35">
+        <v>0.001161454841999808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01088727304552838</v>
+        <v>0.02761963054804801</v>
       </c>
       <c r="C36">
-        <v>-0.02944000328033844</v>
+        <v>-0.007222310507165165</v>
       </c>
       <c r="D36">
-        <v>0.009160330282284435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03940855924527378</v>
+      </c>
+      <c r="E36">
+        <v>0.01610578405187428</v>
+      </c>
+      <c r="F36">
+        <v>0.01530807359243583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000430060960071231</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9.816712723104846e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003460598090243044</v>
+      </c>
+      <c r="E37">
+        <v>-0.0003314047664410691</v>
+      </c>
+      <c r="F37">
+        <v>0.0007377230850646091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0005640703021316584</v>
+        <v>0.001261132081229532</v>
       </c>
       <c r="C38">
-        <v>-0.003930788835088974</v>
+        <v>-0.0001834035600257389</v>
       </c>
       <c r="D38">
-        <v>-0.001470675636084536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007497397381705201</v>
+      </c>
+      <c r="E38">
+        <v>0.0009496263650815615</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006842176580656394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04213447281544495</v>
+        <v>0.1057807349260995</v>
       </c>
       <c r="C39">
-        <v>-0.1747286884964272</v>
+        <v>-0.01657041862290914</v>
       </c>
       <c r="D39">
-        <v>0.0370369833070789</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538165800099286</v>
+      </c>
+      <c r="E39">
+        <v>0.05900320265841963</v>
+      </c>
+      <c r="F39">
+        <v>0.02799421659296534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01114350892323761</v>
+        <v>0.04091454556934961</v>
       </c>
       <c r="C40">
-        <v>-0.01410843607312078</v>
+        <v>-0.007195951131998904</v>
       </c>
       <c r="D40">
-        <v>-0.009866076688022529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03185971617446427</v>
+      </c>
+      <c r="E40">
+        <v>0.00279448276679367</v>
+      </c>
+      <c r="F40">
+        <v>-0.01567298417199466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01132027827431417</v>
+        <v>0.02753354863450688</v>
       </c>
       <c r="C41">
-        <v>-0.02131769906978671</v>
+        <v>-0.006612511403294754</v>
       </c>
       <c r="D41">
-        <v>-0.01961783640065851</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01077292680023819</v>
+      </c>
+      <c r="E41">
+        <v>0.01275695663529539</v>
+      </c>
+      <c r="F41">
+        <v>-0.006634406704253878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01324608963183416</v>
+        <v>0.04042994881869983</v>
       </c>
       <c r="C43">
-        <v>-0.0282425709536901</v>
+        <v>-0.006740616525142707</v>
       </c>
       <c r="D43">
-        <v>-0.01276566966574498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02085587250573743</v>
+      </c>
+      <c r="E43">
+        <v>0.02517046486886268</v>
+      </c>
+      <c r="F43">
+        <v>-0.01251721636889364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03145513892896147</v>
+        <v>0.0804421542852836</v>
       </c>
       <c r="C44">
-        <v>-0.1318673084787428</v>
+        <v>-0.02057930604192401</v>
       </c>
       <c r="D44">
-        <v>-0.001974678318717281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09855598125384415</v>
+      </c>
+      <c r="E44">
+        <v>0.06583238512520741</v>
+      </c>
+      <c r="F44">
+        <v>0.1566236844444683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005439993721223192</v>
+        <v>0.02335550439142076</v>
       </c>
       <c r="C46">
-        <v>-0.004443189626939729</v>
+        <v>-0.003723174272910679</v>
       </c>
       <c r="D46">
-        <v>-0.01728113246232943</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01329417926888848</v>
+      </c>
+      <c r="E46">
+        <v>0.02206620715168786</v>
+      </c>
+      <c r="F46">
+        <v>-0.004294671563290409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01020886855413423</v>
+        <v>0.05107854357943693</v>
       </c>
       <c r="C47">
-        <v>-0.03321506933026741</v>
+        <v>-0.003571951580501066</v>
       </c>
       <c r="D47">
-        <v>-0.03003325012749812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01393188290694655</v>
+      </c>
+      <c r="E47">
+        <v>0.02358267718616853</v>
+      </c>
+      <c r="F47">
+        <v>-0.0329453347991715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01181563866410571</v>
+        <v>0.04962191297304827</v>
       </c>
       <c r="C48">
-        <v>-0.05064763099350748</v>
+        <v>-0.002645319126297173</v>
       </c>
       <c r="D48">
-        <v>0.01001826658251738</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04996282644084067</v>
+      </c>
+      <c r="E48">
+        <v>-0.006523957165083797</v>
+      </c>
+      <c r="F48">
+        <v>0.009345341924757193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.03739293473482742</v>
+        <v>0.1993966511705191</v>
       </c>
       <c r="C49">
-        <v>-0.2015387646665199</v>
+        <v>-0.01869050969041572</v>
       </c>
       <c r="D49">
-        <v>-0.06878645443938099</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00822370912120343</v>
+      </c>
+      <c r="E49">
+        <v>0.03084056873344609</v>
+      </c>
+      <c r="F49">
+        <v>0.0384708480434827</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01848160654409459</v>
+        <v>0.05071720270486012</v>
       </c>
       <c r="C50">
-        <v>-0.0415983736947067</v>
+        <v>-0.0112893841097871</v>
       </c>
       <c r="D50">
-        <v>-0.01442628150535581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0233576462498729</v>
+      </c>
+      <c r="E50">
+        <v>0.02912051201809821</v>
+      </c>
+      <c r="F50">
+        <v>0.008600321513997306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0004619157389121307</v>
+        <v>0.0009547552883695597</v>
       </c>
       <c r="C51">
-        <v>-0.002494361130350773</v>
+        <v>-0.0002719053955782649</v>
       </c>
       <c r="D51">
-        <v>-0.003271953260635998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0007328006134806959</v>
+      </c>
+      <c r="E51">
+        <v>4.346413275283222e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002803956030564646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03030566641310063</v>
+        <v>0.1461402075019142</v>
       </c>
       <c r="C52">
-        <v>-0.1508664237750878</v>
+        <v>-0.01547359936825833</v>
       </c>
       <c r="D52">
-        <v>0.01502744155246151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0457903478579572</v>
+      </c>
+      <c r="E52">
+        <v>0.02085004864550068</v>
+      </c>
+      <c r="F52">
+        <v>0.04095729679238936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03156464445339834</v>
+        <v>0.1727052995958742</v>
       </c>
       <c r="C53">
-        <v>-0.1709650052678531</v>
+        <v>-0.0187050465832395</v>
       </c>
       <c r="D53">
-        <v>-0.01964476376489408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005474252653573484</v>
+      </c>
+      <c r="E53">
+        <v>0.03147223218958061</v>
+      </c>
+      <c r="F53">
+        <v>0.07251628358538846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0156110158621918</v>
+        <v>0.02231164241312658</v>
       </c>
       <c r="C54">
-        <v>-0.04372727567210859</v>
+        <v>-0.01275973988464244</v>
       </c>
       <c r="D54">
-        <v>-0.01314636341946131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03351648962830962</v>
+      </c>
+      <c r="E54">
+        <v>0.01855010819428656</v>
+      </c>
+      <c r="F54">
+        <v>-0.003238751893344671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0242554358142285</v>
+        <v>0.1140679236571403</v>
       </c>
       <c r="C55">
-        <v>-0.08665162016280932</v>
+        <v>-0.01648690625873811</v>
       </c>
       <c r="D55">
-        <v>0.001316568218886336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009202851810686037</v>
+      </c>
+      <c r="E55">
+        <v>0.02794132590482133</v>
+      </c>
+      <c r="F55">
+        <v>0.0468801831977395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03235644629725409</v>
+        <v>0.1771124382125538</v>
       </c>
       <c r="C56">
-        <v>-0.1585306646412558</v>
+        <v>-0.01600868900023732</v>
       </c>
       <c r="D56">
-        <v>-0.03201301062372742</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001458216530773721</v>
+      </c>
+      <c r="E56">
+        <v>0.03617440773400265</v>
+      </c>
+      <c r="F56">
+        <v>0.05111885632513963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01264780294106024</v>
+        <v>0.04667036470505796</v>
       </c>
       <c r="C58">
-        <v>-0.05030440772542788</v>
+        <v>-0.0009913218619480647</v>
       </c>
       <c r="D58">
-        <v>0.001469452596848939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06714597988207308</v>
+      </c>
+      <c r="E58">
+        <v>0.02768436168194814</v>
+      </c>
+      <c r="F58">
+        <v>-0.03642414992063799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01203951912979629</v>
+        <v>0.1671889143060618</v>
       </c>
       <c r="C59">
-        <v>-0.0774385235163859</v>
+        <v>-0.0195134189947546</v>
       </c>
       <c r="D59">
-        <v>-0.1852675543994426</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180765252796997</v>
+      </c>
+      <c r="E59">
+        <v>-0.04551412218310984</v>
+      </c>
+      <c r="F59">
+        <v>-0.03544523451009648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.02518554563757495</v>
+        <v>0.2311311760922182</v>
       </c>
       <c r="C60">
-        <v>-0.272453991429947</v>
+        <v>0.002628220655924415</v>
       </c>
       <c r="D60">
-        <v>-0.01088566048881632</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.042074242836024</v>
+      </c>
+      <c r="E60">
+        <v>0.01138747526902048</v>
+      </c>
+      <c r="F60">
+        <v>-0.006772760107427137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.02967499360241983</v>
+        <v>0.08234725463279986</v>
       </c>
       <c r="C61">
-        <v>-0.1293287805087969</v>
+        <v>-0.01261644693571308</v>
       </c>
       <c r="D61">
-        <v>0.01183707006961644</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155868759644255</v>
+      </c>
+      <c r="E61">
+        <v>0.03831247811119377</v>
+      </c>
+      <c r="F61">
+        <v>0.01111110175183389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03426877294306183</v>
+        <v>0.1707077275391954</v>
       </c>
       <c r="C62">
-        <v>-0.1627269475191187</v>
+        <v>-0.01944488316415197</v>
       </c>
       <c r="D62">
-        <v>-0.02626258842030878</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007176301778469127</v>
+      </c>
+      <c r="E62">
+        <v>0.03560598918111107</v>
+      </c>
+      <c r="F62">
+        <v>0.03475389939163763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01208191826471128</v>
+        <v>0.0456750131257382</v>
       </c>
       <c r="C63">
-        <v>-0.05666839610234756</v>
+        <v>-0.002569513626581962</v>
       </c>
       <c r="D63">
-        <v>-0.0004639272639989505</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05713057871192991</v>
+      </c>
+      <c r="E63">
+        <v>0.02071641066130176</v>
+      </c>
+      <c r="F63">
+        <v>0.00566518619586557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02335428285125571</v>
+        <v>0.1108240202559575</v>
       </c>
       <c r="C64">
-        <v>-0.1005374324964914</v>
+        <v>-0.01183610283524096</v>
       </c>
       <c r="D64">
-        <v>-0.009542500334418618</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04144161582495291</v>
+      </c>
+      <c r="E64">
+        <v>0.02336527650813074</v>
+      </c>
+      <c r="F64">
+        <v>0.02595547779274246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.0379206765189991</v>
+        <v>0.1479522136965852</v>
       </c>
       <c r="C65">
-        <v>-0.1070547637053815</v>
+        <v>-0.03224932990946843</v>
       </c>
       <c r="D65">
-        <v>-0.02163317276258034</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04245296040484074</v>
+      </c>
+      <c r="E65">
+        <v>0.003369446360897222</v>
+      </c>
+      <c r="F65">
+        <v>0.04061891710164884</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04087708479806453</v>
+        <v>0.1253344817667852</v>
       </c>
       <c r="C66">
-        <v>-0.2024360942894821</v>
+        <v>-0.01466282584866772</v>
       </c>
       <c r="D66">
-        <v>0.01644903489677133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1422367756995633</v>
+      </c>
+      <c r="E66">
+        <v>0.06653237967867461</v>
+      </c>
+      <c r="F66">
+        <v>0.03049002604382117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01482535025268789</v>
+        <v>0.06076267108293549</v>
       </c>
       <c r="C67">
-        <v>-0.0639443618882906</v>
+        <v>-0.003247938880698544</v>
       </c>
       <c r="D67">
-        <v>0.002828069498281263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05625390648226291</v>
+      </c>
+      <c r="E67">
+        <v>0.01797054085032057</v>
+      </c>
+      <c r="F67">
+        <v>-0.03348780479693778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01489812885440101</v>
+        <v>0.1164361322589618</v>
       </c>
       <c r="C68">
-        <v>-0.01881266768273488</v>
+        <v>-0.02904783314079159</v>
       </c>
       <c r="D68">
-        <v>-0.164801172882193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2599403076670093</v>
+      </c>
+      <c r="E68">
+        <v>-0.08651442047499859</v>
+      </c>
+      <c r="F68">
+        <v>0.005157264925212146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.005592664600896538</v>
+        <v>0.03973499740693458</v>
       </c>
       <c r="C69">
-        <v>-0.03145465279504223</v>
+        <v>-0.001306551083688187</v>
       </c>
       <c r="D69">
-        <v>-0.006177397996378134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007435380099841902</v>
+      </c>
+      <c r="E69">
+        <v>0.02326836282267198</v>
+      </c>
+      <c r="F69">
+        <v>-0.001036757756201094</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0010243572158483</v>
+        <v>0.06590910338378904</v>
       </c>
       <c r="C70">
-        <v>-0.03337718065196654</v>
+        <v>0.02785294616319944</v>
       </c>
       <c r="D70">
-        <v>-0.003498722128223936</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02534798001550262</v>
+      </c>
+      <c r="E70">
+        <v>-0.04003151648553865</v>
+      </c>
+      <c r="F70">
+        <v>-0.1860889100753055</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.01870442306902748</v>
+        <v>0.1366380236950515</v>
       </c>
       <c r="C71">
-        <v>-0.02342351589171405</v>
+        <v>-0.03401975641797644</v>
       </c>
       <c r="D71">
-        <v>-0.1744191736443872</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2742332642918773</v>
+      </c>
+      <c r="E71">
+        <v>-0.09663467790121825</v>
+      </c>
+      <c r="F71">
+        <v>0.012130958676507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.0358692391109097</v>
+        <v>0.1420500850775715</v>
       </c>
       <c r="C72">
-        <v>-0.1160215157546049</v>
+        <v>-0.02591411338089485</v>
       </c>
       <c r="D72">
-        <v>-0.04090107269160016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001153332611309143</v>
+      </c>
+      <c r="E72">
+        <v>0.03880682522236857</v>
+      </c>
+      <c r="F72">
+        <v>0.03526073665456243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03368773863003775</v>
+        <v>0.2006949454416802</v>
       </c>
       <c r="C73">
-        <v>-0.2016982922814339</v>
+        <v>-0.01267966973931231</v>
       </c>
       <c r="D73">
-        <v>-0.06480014812357078</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01717149235108696</v>
+      </c>
+      <c r="E73">
+        <v>0.06439832916218784</v>
+      </c>
+      <c r="F73">
+        <v>0.0381628484727983</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.01961760780713769</v>
+        <v>0.09501900261830444</v>
       </c>
       <c r="C74">
-        <v>-0.1104947385558955</v>
+        <v>-0.0132045669732198</v>
       </c>
       <c r="D74">
-        <v>-0.02790979766576369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01779105534261958</v>
+      </c>
+      <c r="E74">
+        <v>0.04447699303519688</v>
+      </c>
+      <c r="F74">
+        <v>0.05622851055491764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04106771244324597</v>
+        <v>0.1283045310607352</v>
       </c>
       <c r="C75">
-        <v>-0.1308872903825825</v>
+        <v>-0.02761741074273518</v>
       </c>
       <c r="D75">
-        <v>-0.03707279151749899</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03064619801620211</v>
+      </c>
+      <c r="E75">
+        <v>0.05859095253423895</v>
+      </c>
+      <c r="F75">
+        <v>0.01784698093531885</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.000335021023961818</v>
+        <v>0.0008695205141177672</v>
       </c>
       <c r="C76">
-        <v>-0.002771578492652137</v>
+        <v>-0.0002425800726963125</v>
       </c>
       <c r="D76">
-        <v>-0.003336670136981542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0006895177951076638</v>
+      </c>
+      <c r="E76">
+        <v>0.0001751122760648004</v>
+      </c>
+      <c r="F76">
+        <v>0.0009216253227509808</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02470088046282401</v>
+        <v>0.08467715372537298</v>
       </c>
       <c r="C77">
-        <v>-0.103501890059841</v>
+        <v>-0.008632331271051823</v>
       </c>
       <c r="D77">
-        <v>0.04461664588628975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1128763858924476</v>
+      </c>
+      <c r="E77">
+        <v>0.03724296328778733</v>
+      </c>
+      <c r="F77">
+        <v>0.03046851913212454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05437150425428742</v>
+        <v>0.09985663825589212</v>
       </c>
       <c r="C78">
-        <v>-0.1343739607035284</v>
+        <v>-0.03936477695413765</v>
       </c>
       <c r="D78">
-        <v>-0.01964669400603645</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1172340976147326</v>
+      </c>
+      <c r="E78">
+        <v>0.0754191754344528</v>
+      </c>
+      <c r="F78">
+        <v>0.04447898158090778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03605315266189951</v>
+        <v>0.1646937607859222</v>
       </c>
       <c r="C79">
-        <v>-0.1433902916851975</v>
+        <v>-0.02219320784563</v>
       </c>
       <c r="D79">
-        <v>-0.03989695184634367</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01586248436818355</v>
+      </c>
+      <c r="E79">
+        <v>0.04681757765055729</v>
+      </c>
+      <c r="F79">
+        <v>0.01110648485298648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.008148559910207329</v>
+        <v>0.08253181028979235</v>
       </c>
       <c r="C80">
-        <v>-0.08420283464418858</v>
+        <v>0.0005717062159082696</v>
       </c>
       <c r="D80">
-        <v>-0.00844270381487828</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05701952373394332</v>
+      </c>
+      <c r="E80">
+        <v>0.03699465583046368</v>
+      </c>
+      <c r="F80">
+        <v>-0.02457734088482088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04272520200270007</v>
+        <v>0.1216318733882031</v>
       </c>
       <c r="C81">
-        <v>-0.1425617252108085</v>
+        <v>-0.03137744168081282</v>
       </c>
       <c r="D81">
-        <v>-0.02347257666305992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01629269387801691</v>
+      </c>
+      <c r="E81">
+        <v>0.05859736404322073</v>
+      </c>
+      <c r="F81">
+        <v>0.01632610197950667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.03735201942078525</v>
+        <v>0.166362368095816</v>
       </c>
       <c r="C82">
-        <v>-0.1637946021092162</v>
+        <v>-0.0239356463731793</v>
       </c>
       <c r="D82">
-        <v>-0.03632707325568453</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004155952192878288</v>
+      </c>
+      <c r="E82">
+        <v>0.02829128919668797</v>
+      </c>
+      <c r="F82">
+        <v>0.07972859676565965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01813091791349799</v>
+        <v>0.06069061330939164</v>
       </c>
       <c r="C83">
-        <v>-0.06877780457335671</v>
+        <v>-0.003190187607736399</v>
       </c>
       <c r="D83">
-        <v>-0.004874718237969988</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05031722498299296</v>
+      </c>
+      <c r="E83">
+        <v>0.004937479055022418</v>
+      </c>
+      <c r="F83">
+        <v>-0.03183445527775079</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02644182092482309</v>
+        <v>0.05809695583414953</v>
       </c>
       <c r="C84">
-        <v>-0.07818730407573478</v>
+        <v>-0.01106859027334222</v>
       </c>
       <c r="D84">
-        <v>0.008051808435963106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06533722941589194</v>
+      </c>
+      <c r="E84">
+        <v>0.007769051016870958</v>
+      </c>
+      <c r="F84">
+        <v>0.004077740688957165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03737118718821565</v>
+        <v>0.1367408556998834</v>
       </c>
       <c r="C85">
-        <v>-0.1198947528608012</v>
+        <v>-0.02748088144225949</v>
       </c>
       <c r="D85">
-        <v>-0.0219943782436309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0115765606054724</v>
+      </c>
+      <c r="E85">
+        <v>0.03913894862398495</v>
+      </c>
+      <c r="F85">
+        <v>0.04546707247831758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.007748665189890359</v>
+        <v>0.09365654655568671</v>
       </c>
       <c r="C86">
-        <v>-0.08849991883157794</v>
+        <v>0.006339824380480442</v>
       </c>
       <c r="D86">
-        <v>-0.2391352952624544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04147129647034613</v>
+      </c>
+      <c r="E86">
+        <v>0.2122075363615381</v>
+      </c>
+      <c r="F86">
+        <v>-0.9085656936533013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.03840246275259482</v>
+        <v>0.09701272658081952</v>
       </c>
       <c r="C87">
-        <v>-0.106616732600876</v>
+        <v>-0.02047878654962834</v>
       </c>
       <c r="D87">
-        <v>0.0548058760436966</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0948521815015312</v>
+      </c>
+      <c r="E87">
+        <v>-0.05149599852228413</v>
+      </c>
+      <c r="F87">
+        <v>0.05301409322173668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01296052631108667</v>
+        <v>0.06076790171152562</v>
       </c>
       <c r="C88">
-        <v>-0.05904208252140754</v>
+        <v>-0.002416330444952989</v>
       </c>
       <c r="D88">
-        <v>0.002863964493051783</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05025633417408479</v>
+      </c>
+      <c r="E88">
+        <v>0.02484720985664723</v>
+      </c>
+      <c r="F88">
+        <v>0.01230265087076285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.000362803248782358</v>
+        <v>0.1344499281311352</v>
       </c>
       <c r="C89">
-        <v>-0.04250739503240743</v>
+        <v>-0.01165923581246501</v>
       </c>
       <c r="D89">
-        <v>-0.2104100445905548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2519511044904054</v>
+      </c>
+      <c r="E89">
+        <v>-0.09155287635497959</v>
+      </c>
+      <c r="F89">
+        <v>-0.008651704574610539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01749172385653128</v>
+        <v>0.1497015971832788</v>
       </c>
       <c r="C90">
-        <v>-0.02363554687759021</v>
+        <v>-0.02977550574168504</v>
       </c>
       <c r="D90">
-        <v>-0.1837013359102714</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2680089611231727</v>
+      </c>
+      <c r="E90">
+        <v>-0.111813554812549</v>
+      </c>
+      <c r="F90">
+        <v>-0.002059996271398047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02299261963198508</v>
+        <v>0.1200469537332198</v>
       </c>
       <c r="C91">
-        <v>-0.09609856165729197</v>
+        <v>-0.01843693921909247</v>
       </c>
       <c r="D91">
-        <v>-0.02703957448745828</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01296378279878427</v>
+      </c>
+      <c r="E91">
+        <v>0.05662733711751462</v>
+      </c>
+      <c r="F91">
+        <v>-0.002899944714282074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.001923197589536618</v>
+        <v>0.1476570517367313</v>
       </c>
       <c r="C92">
-        <v>-0.03782704531619237</v>
+        <v>-0.02193406080658464</v>
       </c>
       <c r="D92">
-        <v>-0.1899806095221812</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.291865884719669</v>
+      </c>
+      <c r="E92">
+        <v>-0.1011239215406348</v>
+      </c>
+      <c r="F92">
+        <v>-0.01432543701421508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01404530368757542</v>
+        <v>0.1517219296566229</v>
       </c>
       <c r="C93">
-        <v>-0.0342154158637635</v>
+        <v>-0.02576892963566654</v>
       </c>
       <c r="D93">
-        <v>-0.1965610518206924</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2678171748165625</v>
+      </c>
+      <c r="E93">
+        <v>-0.07764138558069676</v>
+      </c>
+      <c r="F93">
+        <v>0.002917747672475828</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04086357912428507</v>
+        <v>0.1309169690711985</v>
       </c>
       <c r="C94">
-        <v>-0.153807948321901</v>
+        <v>-0.02452127027443667</v>
       </c>
       <c r="D94">
-        <v>-0.03347752862629294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04317909038064277</v>
+      </c>
+      <c r="E94">
+        <v>0.0582598146260914</v>
+      </c>
+      <c r="F94">
+        <v>0.03600012147551844</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.0253661168233346</v>
+        <v>0.127598601635113</v>
       </c>
       <c r="C95">
-        <v>-0.1488368358962498</v>
+        <v>-0.004452062228261431</v>
       </c>
       <c r="D95">
-        <v>0.00263242045713771</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09153635198070872</v>
+      </c>
+      <c r="E95">
+        <v>0.04656035674701058</v>
+      </c>
+      <c r="F95">
+        <v>-0.007413896830860051</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9759808949544815</v>
+        <v>0.1051223155709385</v>
       </c>
       <c r="C96">
-        <v>-0.198068386881796</v>
+        <v>0.9879409503342417</v>
       </c>
       <c r="D96">
-        <v>-0.02787555696865025</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04135135247712993</v>
+      </c>
+      <c r="E96">
+        <v>0.05613500741103882</v>
+      </c>
+      <c r="F96">
+        <v>0.04251069372313693</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.004435070256078196</v>
+        <v>0.1931173943193213</v>
       </c>
       <c r="C97">
-        <v>-0.1607534695952898</v>
+        <v>0.008017820160547081</v>
       </c>
       <c r="D97">
-        <v>-0.1072054854619511</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01594231980707365</v>
+      </c>
+      <c r="E97">
+        <v>0.01900949633549551</v>
+      </c>
+      <c r="F97">
+        <v>-0.08977290664441093</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02547223089937918</v>
+        <v>0.2043770788267416</v>
       </c>
       <c r="C98">
-        <v>-0.1948560375875139</v>
+        <v>-0.007381855920996938</v>
       </c>
       <c r="D98">
-        <v>-0.0272313336633222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01071738568719528</v>
+      </c>
+      <c r="E98">
+        <v>-0.08536657951992319</v>
+      </c>
+      <c r="F98">
+        <v>-0.09604003500971856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003780296522995744</v>
+        <v>0.05555184573120184</v>
       </c>
       <c r="C99">
-        <v>-0.05410021826858787</v>
+        <v>0.004527631592408633</v>
       </c>
       <c r="D99">
-        <v>-0.02160610532936762</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03952273411204974</v>
+      </c>
+      <c r="E99">
+        <v>0.02318194066419022</v>
+      </c>
+      <c r="F99">
+        <v>0.0009624534292297604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.007445262356375752</v>
+        <v>0.1252209749028</v>
       </c>
       <c r="C100">
-        <v>-0.2116305040238187</v>
+        <v>0.05328286344071631</v>
       </c>
       <c r="D100">
-        <v>0.7726811745067225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3455800991923141</v>
+      </c>
+      <c r="E100">
+        <v>-0.8887327127701768</v>
+      </c>
+      <c r="F100">
+        <v>-0.1398556838170748</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01296586222485835</v>
+        <v>0.02766023576010551</v>
       </c>
       <c r="C101">
-        <v>-0.02858638655418787</v>
+        <v>-0.008180919550947491</v>
       </c>
       <c r="D101">
-        <v>-0.01222143173776259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03233573244492715</v>
+      </c>
+      <c r="E101">
+        <v>0.01076211524266665</v>
+      </c>
+      <c r="F101">
+        <v>-0.01136730654717833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
